--- a/hw7.xlsx
+++ b/hw7.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
-    <t>Паралельный корпус - Английский</t>
-  </si>
-  <si>
     <t>"Лингвоспецифичное" слово:</t>
   </si>
   <si>
@@ -75,10 +72,13 @@
     <t>Неспецифичное слово:</t>
   </si>
   <si>
-    <t>Коммисар</t>
-  </si>
-  <si>
     <t>commissar</t>
+  </si>
+  <si>
+    <t>Параллельный корпус - Английский</t>
+  </si>
+  <si>
+    <t>Комиссар</t>
   </si>
 </sst>
 </file>
@@ -607,9 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -624,7 +622,7 @@
   <sheetData>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -667,10 +665,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -683,7 +681,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="15">
         <v>13</v>
@@ -710,15 +708,15 @@
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
         <f>C10/C14</f>
@@ -732,17 +730,17 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8">
         <v>10</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <f>E7/C14</f>
@@ -756,17 +754,17 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4">
         <f>C10/C11</f>
@@ -780,7 +778,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -788,7 +786,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="19">
         <f>C10/E7</f>
@@ -802,7 +800,7 @@
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -819,7 +817,7 @@
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
         <f>COUNTA(B10:B13)</f>
@@ -904,10 +902,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -920,7 +918,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="15">
         <v>19</v>
@@ -947,15 +945,15 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="2"/>
       <c r="F23" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4">
         <f>C24/C25</f>
@@ -969,17 +967,17 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8">
         <v>19</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4">
         <f>E21/C25</f>
@@ -993,7 +991,7 @@
     </row>
     <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
         <f>COUNTA(B24:B24)</f>
@@ -1002,7 +1000,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="2"/>
       <c r="F25" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4">
         <f>C24/C24</f>
@@ -1020,7 +1018,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="19">
         <f>C24/E21</f>
